--- a/figures/simulation_results.xlsx
+++ b/figures/simulation_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kienkauko\OneDrive - Hanoi University of Science and Technology\Simulators-n-tools\serverless-simulator\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9D8511-8FE8-4547-859D-FFB900336725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A992D3-0B90-455F-A670-CA8174608657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="25">
   <si>
     <t>cluster_strategy</t>
   </si>
@@ -53,7 +53,10 @@
     <t>mean_power</t>
   </si>
   <si>
-    <t>centralized_cloud</t>
+    <t>mean_ram</t>
+  </si>
+  <si>
+    <t>mean_cpu</t>
   </si>
   <si>
     <t>edge_cloud_level_1</t>
@@ -63,6 +66,9 @@
   </si>
   <si>
     <t>edge_cloud_level_2</t>
+  </si>
+  <si>
+    <t>centralized_cloud</t>
   </si>
   <si>
     <t>3-3</t>
@@ -452,18 +458,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O141" sqref="O141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,10 +503,16 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>5000</v>
@@ -527,9 +542,9 @@
         <v>65632.100000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>5000</v>
@@ -559,9 +574,9 @@
         <v>104905</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>5000</v>
@@ -591,9 +606,9 @@
         <v>161082.6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>5000</v>
@@ -623,9 +638,9 @@
         <v>215445.3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>5000</v>
@@ -655,9 +670,9 @@
         <v>274456</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>5000</v>
@@ -687,9 +702,9 @@
         <v>331564.2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>5000</v>
@@ -719,9 +734,9 @@
         <v>391564</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>5000</v>
@@ -751,9 +766,9 @@
         <v>449559.8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>5000</v>
@@ -783,7 +798,7 @@
         <v>512034</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -791,31 +806,31 @@
         <v>5000</v>
       </c>
       <c r="C11">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>50.75</v>
       </c>
       <c r="F11">
-        <v>5.5129999999999999</v>
+        <v>5.1749999999999998</v>
       </c>
       <c r="G11">
-        <v>0.41</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H11">
-        <v>4.9470000000000001</v>
+        <v>3.952</v>
       </c>
       <c r="I11">
-        <v>0.157</v>
+        <v>1.1479999999999999</v>
       </c>
       <c r="J11">
-        <v>65632.100000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>576156.69999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -823,31 +838,31 @@
         <v>5000</v>
       </c>
       <c r="C12">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>55.34</v>
       </c>
       <c r="F12">
-        <v>5.5369999999999999</v>
+        <v>5.2160000000000002</v>
       </c>
       <c r="G12">
-        <v>0.34399999999999997</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="H12">
-        <v>4.952</v>
+        <v>3.8610000000000002</v>
       </c>
       <c r="I12">
-        <v>0.24099999999999999</v>
+        <v>1.2869999999999999</v>
       </c>
       <c r="J12">
-        <v>104905</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>643422.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -855,31 +870,31 @@
         <v>5000</v>
       </c>
       <c r="C13">
-        <v>2.9999999999999997E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="D13">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59.41</v>
       </c>
       <c r="F13">
-        <v>5.6040000000000001</v>
+        <v>5.2850000000000001</v>
       </c>
       <c r="G13">
-        <v>0.28799999999999998</v>
+        <v>6.3E-2</v>
       </c>
       <c r="H13">
-        <v>4.9470000000000001</v>
+        <v>3.7810000000000001</v>
       </c>
       <c r="I13">
-        <v>0.36899999999999999</v>
+        <v>1.4419999999999999</v>
       </c>
       <c r="J13">
-        <v>160447.79999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>716013.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -887,31 +902,31 @@
         <v>5000</v>
       </c>
       <c r="C14">
-        <v>4.0000000000000002E-4</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="D14">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>63.14</v>
       </c>
       <c r="F14">
-        <v>5.6180000000000003</v>
+        <v>5.3979999999999997</v>
       </c>
       <c r="G14">
-        <v>0.221</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="H14">
-        <v>4.9459999999999997</v>
+        <v>3.706</v>
       </c>
       <c r="I14">
-        <v>0.45</v>
+        <v>1.6339999999999999</v>
       </c>
       <c r="J14">
-        <v>200648.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>798721.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -919,31 +934,31 @@
         <v>5000</v>
       </c>
       <c r="C15">
-        <v>5.0000000000000001E-4</v>
+        <v>1.4E-3</v>
       </c>
       <c r="D15">
-        <v>14.21</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>66.3</v>
       </c>
       <c r="F15">
-        <v>5.6280000000000001</v>
+        <v>5.5389999999999997</v>
       </c>
       <c r="G15">
-        <v>0.18</v>
+        <v>5.5E-2</v>
       </c>
       <c r="H15">
-        <v>4.9420000000000002</v>
+        <v>3.6440000000000001</v>
       </c>
       <c r="I15">
-        <v>0.505</v>
+        <v>1.84</v>
       </c>
       <c r="J15">
-        <v>229531.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>881053.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -951,28 +966,28 @@
         <v>5000</v>
       </c>
       <c r="C16">
-        <v>5.9999999999999995E-4</v>
+        <v>1.5E-3</v>
       </c>
       <c r="D16">
-        <v>22.64</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>69.23</v>
       </c>
       <c r="F16">
-        <v>5.6360000000000001</v>
+        <v>5.7409999999999997</v>
       </c>
       <c r="G16">
-        <v>0.14599999999999999</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="H16">
-        <v>4.9470000000000001</v>
+        <v>3.5870000000000002</v>
       </c>
       <c r="I16">
-        <v>0.54200000000000004</v>
+        <v>2.101</v>
       </c>
       <c r="J16">
-        <v>248020.9</v>
+        <v>979241</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -983,28 +998,28 @@
         <v>5000</v>
       </c>
       <c r="C17">
-        <v>6.9999999999999999E-4</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="D17">
-        <v>30.28</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>71.88</v>
       </c>
       <c r="F17">
-        <v>5.6479999999999997</v>
+        <v>5.9859999999999998</v>
       </c>
       <c r="G17">
-        <v>0.129</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="H17">
-        <v>4.9489999999999998</v>
+        <v>3.5339999999999998</v>
       </c>
       <c r="I17">
-        <v>0.57099999999999995</v>
+        <v>2.399</v>
       </c>
       <c r="J17">
-        <v>261806.1</v>
+        <v>1090733.6000000001</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1015,28 +1030,28 @@
         <v>5000</v>
       </c>
       <c r="C18">
-        <v>8.0000000000000004E-4</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="D18">
-        <v>36.76</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>74.260000000000005</v>
       </c>
       <c r="F18">
-        <v>5.66</v>
+        <v>6.2930000000000001</v>
       </c>
       <c r="G18">
-        <v>0.115</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="H18">
-        <v>4.9489999999999998</v>
+        <v>3.488</v>
       </c>
       <c r="I18">
-        <v>0.59699999999999998</v>
+        <v>2.7530000000000001</v>
       </c>
       <c r="J18">
-        <v>271448.90000000002</v>
+        <v>1214968.5</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1047,92 +1062,92 @@
         <v>5000</v>
       </c>
       <c r="C19">
-        <v>8.9999999999999998E-4</v>
+        <v>1.8E-3</v>
       </c>
       <c r="D19">
-        <v>42.4</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>76.41</v>
       </c>
       <c r="F19">
-        <v>5.6749999999999998</v>
+        <v>6.6660000000000004</v>
       </c>
       <c r="G19">
-        <v>0.104</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="H19">
-        <v>4.952</v>
+        <v>3.4449999999999998</v>
       </c>
       <c r="I19">
-        <v>0.61899999999999999</v>
+        <v>3.169</v>
       </c>
       <c r="J19">
-        <v>279063.8</v>
+        <v>1358082.8</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>5000</v>
       </c>
       <c r="C20">
-        <v>1E-4</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.01</v>
+        <v>78.48</v>
       </c>
       <c r="F20">
-        <v>6.02</v>
+        <v>7.1630000000000003</v>
       </c>
       <c r="G20">
-        <v>0.95899999999999996</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="H20">
-        <v>4.9470000000000001</v>
+        <v>3.4049999999999998</v>
       </c>
       <c r="I20">
-        <v>0.114</v>
+        <v>3.7050000000000001</v>
       </c>
       <c r="J20">
-        <v>70250.899999999994</v>
+        <v>1542465.5</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>5000</v>
       </c>
       <c r="C21">
-        <v>2.0000000000000001E-4</v>
+        <v>2E-3</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="E21">
-        <v>0.85</v>
+        <v>80.22</v>
       </c>
       <c r="F21">
-        <v>5.8760000000000003</v>
+        <v>7.7169999999999996</v>
       </c>
       <c r="G21">
-        <v>0.77300000000000002</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="H21">
-        <v>4.9359999999999999</v>
+        <v>3.37</v>
       </c>
       <c r="I21">
-        <v>0.16600000000000001</v>
+        <v>4.2930000000000001</v>
       </c>
       <c r="J21">
-        <v>109692.8</v>
+        <v>1746611.1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1143,28 +1158,28 @@
         <v>5000</v>
       </c>
       <c r="C22">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.44</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>5.6</v>
+        <v>5.5129999999999999</v>
       </c>
       <c r="G22">
-        <v>0.54500000000000004</v>
+        <v>0.41</v>
       </c>
       <c r="H22">
-        <v>4.8150000000000004</v>
+        <v>4.9470000000000001</v>
       </c>
       <c r="I22">
-        <v>0.24</v>
+        <v>0.157</v>
       </c>
       <c r="J22">
-        <v>162667.70000000001</v>
+        <v>65632.100000000006</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1175,28 +1190,28 @@
         <v>5000</v>
       </c>
       <c r="C23">
-        <v>4.0000000000000002E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.48</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>5.3620000000000001</v>
+        <v>5.5369999999999999</v>
       </c>
       <c r="G23">
-        <v>0.39500000000000002</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="H23">
-        <v>4.6639999999999997</v>
+        <v>4.952</v>
       </c>
       <c r="I23">
-        <v>0.30299999999999999</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="J23">
-        <v>213142.2</v>
+        <v>104905</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1207,28 +1222,28 @@
         <v>5000</v>
       </c>
       <c r="C24">
-        <v>5.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="E24">
-        <v>23.81</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>5.1349999999999998</v>
+        <v>5.6040000000000001</v>
       </c>
       <c r="G24">
-        <v>0.28599999999999998</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="H24">
-        <v>4.4809999999999999</v>
+        <v>4.9470000000000001</v>
       </c>
       <c r="I24">
-        <v>0.36799999999999999</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="J24">
-        <v>265547.5</v>
+        <v>160447.79999999999</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1239,28 +1254,28 @@
         <v>5000</v>
       </c>
       <c r="C25">
-        <v>5.9999999999999995E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="E25">
-        <v>31.94</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>4.9690000000000003</v>
+        <v>5.6180000000000003</v>
       </c>
       <c r="G25">
-        <v>0.218</v>
+        <v>0.221</v>
       </c>
       <c r="H25">
-        <v>4.3220000000000001</v>
+        <v>4.9459999999999997</v>
       </c>
       <c r="I25">
-        <v>0.42899999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="J25">
-        <v>316196.8</v>
+        <v>200648.4</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1271,28 +1286,28 @@
         <v>5000</v>
       </c>
       <c r="C26">
-        <v>6.9999999999999999E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>14.21</v>
       </c>
       <c r="E26">
-        <v>39.11</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>4.8479999999999999</v>
+        <v>5.6280000000000001</v>
       </c>
       <c r="G26">
-        <v>0.17299999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="H26">
-        <v>4.181</v>
+        <v>4.9420000000000002</v>
       </c>
       <c r="I26">
-        <v>0.49399999999999999</v>
+        <v>0.505</v>
       </c>
       <c r="J26">
-        <v>368209.9</v>
+        <v>229531.9</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1303,28 +1318,28 @@
         <v>5000</v>
       </c>
       <c r="C27">
-        <v>8.0000000000000004E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>22.64</v>
       </c>
       <c r="E27">
-        <v>45.26</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>4.774</v>
+        <v>5.6360000000000001</v>
       </c>
       <c r="G27">
-        <v>0.14099999999999999</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="H27">
-        <v>4.0620000000000003</v>
+        <v>4.9470000000000001</v>
       </c>
       <c r="I27">
-        <v>0.57099999999999995</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="J27">
-        <v>420845</v>
+        <v>248020.9</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1335,1372 +1350,3932 @@
         <v>5000</v>
       </c>
       <c r="C28">
-        <v>8.9999999999999998E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>30.28</v>
       </c>
       <c r="E28">
-        <v>50.35</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>4.7389999999999999</v>
+        <v>5.6479999999999997</v>
       </c>
       <c r="G28">
-        <v>0.121</v>
+        <v>0.129</v>
       </c>
       <c r="H28">
-        <v>3.96</v>
+        <v>4.9489999999999998</v>
       </c>
       <c r="I28">
-        <v>0.65800000000000003</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="J28">
-        <v>476933.5</v>
+        <v>261806.1</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="C29">
-        <v>1E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>36.76</v>
       </c>
       <c r="E29">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>3.17</v>
+        <v>5.66</v>
       </c>
       <c r="G29">
-        <v>4.4999999999999998E-2</v>
+        <v>0.115</v>
       </c>
       <c r="H29">
-        <v>2.98</v>
+        <v>4.9489999999999998</v>
       </c>
       <c r="I29">
-        <v>0.14499999999999999</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="J29">
-        <v>50084.2</v>
+        <v>271448.90000000002</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="C30">
-        <v>2.0000000000000001E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>42.4</v>
       </c>
       <c r="E30">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>3.254</v>
+        <v>5.6749999999999998</v>
       </c>
       <c r="G30">
-        <v>4.2999999999999997E-2</v>
+        <v>0.104</v>
       </c>
       <c r="H30">
-        <v>2.9830000000000001</v>
+        <v>4.952</v>
       </c>
       <c r="I30">
-        <v>0.22800000000000001</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="J30">
-        <v>81600.600000000006</v>
+        <v>279063.8</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="C31">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>47.11</v>
       </c>
       <c r="E31">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>3.3719999999999999</v>
+        <v>5.6790000000000003</v>
       </c>
       <c r="G31">
-        <v>3.7999999999999999E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="H31">
-        <v>2.9780000000000002</v>
+        <v>4.9470000000000001</v>
       </c>
       <c r="I31">
-        <v>0.35699999999999998</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="J31">
-        <v>128017</v>
+        <v>283941.5</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="C32">
-        <v>4.0000000000000002E-4</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>51.38</v>
       </c>
       <c r="E32">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>3.5049999999999999</v>
+        <v>5.6870000000000003</v>
       </c>
       <c r="G32">
-        <v>3.6999999999999998E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="H32">
-        <v>2.9830000000000001</v>
+        <v>4.9489999999999998</v>
       </c>
       <c r="I32">
-        <v>0.48499999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="J32">
-        <v>176540.2</v>
+        <v>287564.7</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="C33">
-        <v>5.0000000000000001E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>55.03</v>
       </c>
       <c r="E33">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>3.6520000000000001</v>
+        <v>5.6890000000000001</v>
       </c>
       <c r="G33">
-        <v>3.6999999999999998E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="H33">
-        <v>2.9820000000000002</v>
+        <v>4.95</v>
       </c>
       <c r="I33">
-        <v>0.63400000000000001</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="J33">
-        <v>229884.6</v>
+        <v>290186.09999999998</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="C34">
-        <v>5.9999999999999995E-4</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>58.35</v>
       </c>
       <c r="E34">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>3.8050000000000002</v>
+        <v>5.6840000000000002</v>
       </c>
       <c r="G34">
-        <v>3.5999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H34">
-        <v>2.9820000000000002</v>
+        <v>4.9459999999999997</v>
       </c>
       <c r="I34">
-        <v>0.78700000000000003</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="J34">
-        <v>285534.90000000002</v>
+        <v>291485.40000000002</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="C35">
-        <v>6.9999999999999999E-4</v>
+        <v>1.4E-3</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>61.17</v>
       </c>
       <c r="E35">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>3.984</v>
+        <v>5.6829999999999998</v>
       </c>
       <c r="G35">
-        <v>3.5999999999999997E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="H35">
-        <v>2.9830000000000001</v>
+        <v>4.9459999999999997</v>
       </c>
       <c r="I35">
-        <v>0.96399999999999997</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="J35">
-        <v>348934.7</v>
+        <v>292044.09999999998</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="C36">
-        <v>8.0000000000000004E-4</v>
+        <v>1.5E-3</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>63.76</v>
       </c>
       <c r="E36">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>4.1710000000000003</v>
+        <v>5.6829999999999998</v>
       </c>
       <c r="G36">
-        <v>3.5999999999999997E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H36">
-        <v>2.9830000000000001</v>
+        <v>4.9489999999999998</v>
       </c>
       <c r="I36">
-        <v>1.151</v>
+        <v>0.67</v>
       </c>
       <c r="J36">
-        <v>413235.20000000001</v>
+        <v>292334.5</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="C37">
-        <v>8.9999999999999998E-4</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>66.03</v>
       </c>
       <c r="E37">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>4.3869999999999996</v>
+        <v>5.6849999999999996</v>
       </c>
       <c r="G37">
-        <v>3.6999999999999998E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H37">
-        <v>2.9830000000000001</v>
+        <v>4.9509999999999996</v>
       </c>
       <c r="I37">
-        <v>1.367</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="J37">
-        <v>486252.3</v>
+        <v>292576.2</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="C38">
-        <v>1E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>68.010000000000005</v>
       </c>
       <c r="E38">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>4.6130000000000004</v>
+        <v>5.6840000000000002</v>
       </c>
       <c r="G38">
-        <v>3.6999999999999998E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="H38">
-        <v>2.9830000000000001</v>
+        <v>4.9509999999999996</v>
       </c>
       <c r="I38">
-        <v>1.593</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="J38">
-        <v>563571.80000000005</v>
+        <v>292692.2</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="C39">
-        <v>1.1000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>69.72</v>
       </c>
       <c r="E39">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>4.8819999999999997</v>
+        <v>5.68</v>
       </c>
       <c r="G39">
-        <v>3.6999999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H39">
-        <v>2.9820000000000002</v>
+        <v>4.9470000000000001</v>
       </c>
       <c r="I39">
-        <v>1.8620000000000001</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="J39">
-        <v>651384.6</v>
+        <v>292793.3</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="C40">
-        <v>1.1999999999999999E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>71.34</v>
       </c>
       <c r="E40">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>5.1689999999999996</v>
+        <v>5.6829999999999998</v>
       </c>
       <c r="G40">
-        <v>3.7999999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H40">
-        <v>2.9820000000000002</v>
+        <v>4.95</v>
       </c>
       <c r="I40">
-        <v>2.149</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="J40">
-        <v>746491.8</v>
+        <v>292879.8</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="C41">
-        <v>1.2999999999999999E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>72.77</v>
       </c>
       <c r="E41">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>5.5229999999999997</v>
+        <v>5.6820000000000004</v>
       </c>
       <c r="G41">
-        <v>3.9E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H41">
-        <v>2.9809999999999999</v>
+        <v>4.9489999999999998</v>
       </c>
       <c r="I41">
-        <v>2.5030000000000001</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="J41">
-        <v>860347.1</v>
+        <v>292937.90000000002</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="C42">
-        <v>1.4E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>100</v>
+        <v>0.01</v>
       </c>
       <c r="F42">
-        <v>5.8949999999999996</v>
+        <v>6.02</v>
       </c>
       <c r="G42">
-        <v>4.1000000000000002E-2</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="H42">
-        <v>2.9809999999999999</v>
+        <v>4.9470000000000001</v>
       </c>
       <c r="I42">
-        <v>2.8740000000000001</v>
+        <v>0.114</v>
       </c>
       <c r="J42">
-        <v>981283.5</v>
+        <v>70250.899999999994</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B43">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="C43">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="F43">
-        <v>5.5129999999999999</v>
+        <v>5.8760000000000003</v>
       </c>
       <c r="G43">
-        <v>0.41</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="H43">
-        <v>4.9470000000000001</v>
+        <v>4.9359999999999999</v>
       </c>
       <c r="I43">
-        <v>0.157</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="J43">
-        <v>65632.100000000006</v>
+        <v>109692.8</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B44">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="C44">
-        <v>2.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>6.44</v>
       </c>
       <c r="F44">
-        <v>5.5369999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="G44">
-        <v>0.34399999999999997</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="H44">
-        <v>4.952</v>
+        <v>4.8150000000000004</v>
       </c>
       <c r="I44">
-        <v>0.24099999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="J44">
-        <v>104905</v>
+        <v>162667.70000000001</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B45">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="C45">
-        <v>2.9999999999999997E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>14.48</v>
       </c>
       <c r="F45">
-        <v>5.6059999999999999</v>
+        <v>5.3620000000000001</v>
       </c>
       <c r="G45">
-        <v>0.29399999999999998</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="H45">
-        <v>4.9409999999999998</v>
+        <v>4.6639999999999997</v>
       </c>
       <c r="I45">
-        <v>0.371</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="J45">
-        <v>161896.4</v>
+        <v>213142.2</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B46">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="C46">
-        <v>4.0000000000000002E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0.28999999999999998</v>
+        <v>23.81</v>
       </c>
       <c r="F46">
-        <v>5.71</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="G46">
-        <v>0.26800000000000002</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="H46">
-        <v>4.9459999999999997</v>
+        <v>4.4809999999999999</v>
       </c>
       <c r="I46">
-        <v>0.496</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="J46">
-        <v>217964.2</v>
+        <v>265547.5</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B47">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="C47">
-        <v>5.0000000000000001E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>3.66</v>
+        <v>31.94</v>
       </c>
       <c r="F47">
-        <v>5.7220000000000004</v>
+        <v>4.9690000000000003</v>
       </c>
       <c r="G47">
         <v>0.218</v>
       </c>
       <c r="H47">
-        <v>4.8780000000000001</v>
+        <v>4.3220000000000001</v>
       </c>
       <c r="I47">
-        <v>0.626</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="J47">
-        <v>277585</v>
+        <v>316196.8</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B48">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="C48">
-        <v>5.9999999999999995E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>10.09</v>
+        <v>39.11</v>
       </c>
       <c r="F48">
-        <v>5.6740000000000004</v>
+        <v>4.8479999999999999</v>
       </c>
       <c r="G48">
-        <v>0.18</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="H48">
-        <v>4.75</v>
+        <v>4.181</v>
       </c>
       <c r="I48">
-        <v>0.74399999999999999</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="J48">
-        <v>338305</v>
+        <v>368209.9</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B49">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="C49">
-        <v>6.9999999999999999E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>17.34</v>
+        <v>45.26</v>
       </c>
       <c r="F49">
-        <v>5.6230000000000002</v>
+        <v>4.774</v>
       </c>
       <c r="G49">
-        <v>0.152</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="H49">
-        <v>4.6109999999999998</v>
+        <v>4.0620000000000003</v>
       </c>
       <c r="I49">
-        <v>0.86</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="J49">
-        <v>403346.9</v>
+        <v>420845</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B50">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="C50">
-        <v>8.0000000000000004E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>24.18</v>
+        <v>50.35</v>
       </c>
       <c r="F50">
-        <v>5.5780000000000003</v>
+        <v>4.7389999999999999</v>
       </c>
       <c r="G50">
-        <v>0.125</v>
+        <v>0.121</v>
       </c>
       <c r="H50">
-        <v>4.476</v>
+        <v>3.96</v>
       </c>
       <c r="I50">
-        <v>0.97699999999999998</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="J50">
-        <v>465822.2</v>
+        <v>476933.5</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B51">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>8.9999999999999998E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>30.67</v>
+        <v>100</v>
       </c>
       <c r="F51">
-        <v>5.5529999999999999</v>
+        <v>3.17</v>
       </c>
       <c r="G51">
-        <v>0.109</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="H51">
-        <v>4.3470000000000004</v>
+        <v>2.98</v>
       </c>
       <c r="I51">
-        <v>1.0980000000000001</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="J51">
-        <v>530449.9</v>
+        <v>50084.2</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B52">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>1E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>36.409999999999997</v>
+        <v>100</v>
       </c>
       <c r="F52">
-        <v>5.5540000000000003</v>
+        <v>3.254</v>
       </c>
       <c r="G52">
-        <v>0.1</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="H52">
-        <v>4.2329999999999997</v>
+        <v>2.9830000000000001</v>
       </c>
       <c r="I52">
-        <v>1.2210000000000001</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="J52">
-        <v>598162.9</v>
+        <v>81600.600000000006</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B53">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>1.1000000000000001E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>41.66</v>
+        <v>100</v>
       </c>
       <c r="F53">
-        <v>5.5730000000000004</v>
+        <v>3.3719999999999999</v>
       </c>
       <c r="G53">
-        <v>0.09</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="H53">
-        <v>4.1289999999999996</v>
+        <v>2.9780000000000002</v>
       </c>
       <c r="I53">
-        <v>1.3540000000000001</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="J53">
-        <v>666244.30000000005</v>
+        <v>128017</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B54">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>1.1999999999999999E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>46.28</v>
+        <v>100</v>
       </c>
       <c r="F54">
-        <v>5.617</v>
+        <v>3.5049999999999999</v>
       </c>
       <c r="G54">
-        <v>8.2000000000000003E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="H54">
-        <v>4.0389999999999997</v>
+        <v>2.9830000000000001</v>
       </c>
       <c r="I54">
-        <v>1.4970000000000001</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="J54">
-        <v>739564.2</v>
+        <v>176540.2</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B55">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>1.2999999999999999E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>50.64</v>
+        <v>100</v>
       </c>
       <c r="F55">
-        <v>5.6870000000000003</v>
+        <v>3.6520000000000001</v>
       </c>
       <c r="G55">
-        <v>7.5999999999999998E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="H55">
-        <v>3.952</v>
+        <v>2.9820000000000002</v>
       </c>
       <c r="I55">
-        <v>1.659</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="J55">
-        <v>816373.4</v>
+        <v>229884.6</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B56">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>1.4E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>54.36</v>
+        <v>100</v>
       </c>
       <c r="F56">
-        <v>5.782</v>
+        <v>3.8050000000000002</v>
       </c>
       <c r="G56">
-        <v>7.0999999999999994E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H56">
-        <v>3.8780000000000001</v>
+        <v>2.9820000000000002</v>
       </c>
       <c r="I56">
-        <v>1.8340000000000001</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="J56">
-        <v>897533.3</v>
+        <v>285534.90000000002</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B57">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>1E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57">
-        <v>5.5129999999999999</v>
+        <v>3.984</v>
       </c>
       <c r="G57">
-        <v>0.41</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H57">
-        <v>4.9470000000000001</v>
+        <v>2.9830000000000001</v>
       </c>
       <c r="I57">
-        <v>0.157</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="J57">
-        <v>65632.100000000006</v>
+        <v>348934.7</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B58">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>2.0000000000000001E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58">
-        <v>5.5369999999999999</v>
+        <v>4.1710000000000003</v>
       </c>
       <c r="G58">
-        <v>0.34399999999999997</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H58">
-        <v>4.952</v>
+        <v>2.9830000000000001</v>
       </c>
       <c r="I58">
-        <v>0.24099999999999999</v>
+        <v>1.151</v>
       </c>
       <c r="J58">
-        <v>104905</v>
+        <v>413235.20000000001</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B59">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>2.9999999999999997E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59">
-        <v>5.6059999999999999</v>
+        <v>4.3869999999999996</v>
       </c>
       <c r="G59">
-        <v>0.29399999999999998</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="H59">
-        <v>4.9409999999999998</v>
+        <v>2.9830000000000001</v>
       </c>
       <c r="I59">
-        <v>0.371</v>
+        <v>1.367</v>
       </c>
       <c r="J59">
-        <v>161896.4</v>
+        <v>486252.3</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B60">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>4.0000000000000002E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D60">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F60">
-        <v>5.7060000000000004</v>
+        <v>4.6130000000000004</v>
       </c>
       <c r="G60">
-        <v>0.26500000000000001</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="H60">
-        <v>4.9459999999999997</v>
+        <v>2.9830000000000001</v>
       </c>
       <c r="I60">
-        <v>0.49399999999999999</v>
+        <v>1.593</v>
       </c>
       <c r="J60">
-        <v>216532.2</v>
+        <v>563571.80000000005</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B61">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>5.0000000000000001E-4</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="D61">
-        <v>3.27</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61">
-        <v>5.7640000000000002</v>
+        <v>4.8819999999999997</v>
       </c>
       <c r="G61">
-        <v>0.22</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="H61">
-        <v>4.9450000000000003</v>
+        <v>2.9820000000000002</v>
       </c>
       <c r="I61">
-        <v>0.59899999999999998</v>
+        <v>1.8620000000000001</v>
       </c>
       <c r="J61">
-        <v>265807.2</v>
+        <v>651384.6</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B62">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>5.9999999999999995E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="D62">
-        <v>9.26</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F62">
-        <v>5.7930000000000001</v>
+        <v>5.1689999999999996</v>
       </c>
       <c r="G62">
-        <v>0.184</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="H62">
-        <v>4.9450000000000003</v>
+        <v>2.9820000000000002</v>
       </c>
       <c r="I62">
-        <v>0.66500000000000004</v>
+        <v>2.149</v>
       </c>
       <c r="J62">
-        <v>299151.09999999998</v>
+        <v>746491.8</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B63">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>6.9999999999999999E-4</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="D63">
-        <v>15.61</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F63">
-        <v>5.8230000000000004</v>
+        <v>5.5229999999999997</v>
       </c>
       <c r="G63">
-        <v>0.16200000000000001</v>
+        <v>3.9E-2</v>
       </c>
       <c r="H63">
-        <v>4.9459999999999997</v>
+        <v>2.9809999999999999</v>
       </c>
       <c r="I63">
-        <v>0.71499999999999997</v>
+        <v>2.5030000000000001</v>
       </c>
       <c r="J63">
-        <v>326754.5</v>
+        <v>860347.1</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B64">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>8.0000000000000004E-4</v>
+        <v>1.4E-3</v>
       </c>
       <c r="D64">
-        <v>21.85</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F64">
-        <v>5.8440000000000003</v>
+        <v>5.8949999999999996</v>
       </c>
       <c r="G64">
-        <v>0.14000000000000001</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="H64">
-        <v>4.9470000000000001</v>
+        <v>2.9809999999999999</v>
       </c>
       <c r="I64">
-        <v>0.75700000000000001</v>
+        <v>2.8740000000000001</v>
       </c>
       <c r="J64">
-        <v>346490.6</v>
+        <v>981283.5</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B65">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>8.9999999999999998E-4</v>
+        <v>1.5E-3</v>
       </c>
       <c r="D65">
-        <v>27.89</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F65">
-        <v>5.8609999999999998</v>
+        <v>6.3609999999999998</v>
       </c>
       <c r="G65">
-        <v>0.125</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="H65">
-        <v>4.95</v>
+        <v>2.9809999999999999</v>
       </c>
       <c r="I65">
-        <v>0.78600000000000003</v>
+        <v>3.3370000000000002</v>
       </c>
       <c r="J65">
-        <v>360929.2</v>
+        <v>1133138.2</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B66">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>1E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="D66">
-        <v>32.99</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F66">
-        <v>5.8819999999999997</v>
+        <v>6.8979999999999997</v>
       </c>
       <c r="G66">
-        <v>0.11700000000000001</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="H66">
-        <v>4.9489999999999998</v>
+        <v>2.9809999999999999</v>
       </c>
       <c r="I66">
-        <v>0.81499999999999995</v>
+        <v>3.8730000000000002</v>
       </c>
       <c r="J66">
-        <v>373071.8</v>
+        <v>1311124.6000000001</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B67">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>1.1000000000000001E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="D67">
-        <v>37.74</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F67">
-        <v>5.899</v>
+        <v>7.5419999999999998</v>
       </c>
       <c r="G67">
-        <v>0.108</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H67">
-        <v>4.95</v>
+        <v>2.9809999999999999</v>
       </c>
       <c r="I67">
-        <v>0.84099999999999997</v>
+        <v>4.5129999999999999</v>
       </c>
       <c r="J67">
-        <v>382573.9</v>
+        <v>1520654.5</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B68">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>1.1999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="D68">
-        <v>41.78</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F68">
-        <v>5.9160000000000004</v>
+        <v>8.2959999999999994</v>
       </c>
       <c r="G68">
-        <v>0.10100000000000001</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="H68">
-        <v>4.9489999999999998</v>
+        <v>2.9809999999999999</v>
       </c>
       <c r="I68">
-        <v>0.86599999999999999</v>
+        <v>5.2640000000000002</v>
       </c>
       <c r="J68">
-        <v>390856.9</v>
+        <v>1768559.4</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B69">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>1.2999999999999999E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D69">
-        <v>45.69</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F69">
-        <v>5.931</v>
+        <v>9.3089999999999993</v>
       </c>
       <c r="G69">
-        <v>9.2999999999999999E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="H69">
-        <v>4.9509999999999996</v>
+        <v>2.9809999999999999</v>
       </c>
       <c r="I69">
-        <v>0.88700000000000001</v>
+        <v>6.27</v>
       </c>
       <c r="J69">
-        <v>396919.8</v>
+        <v>2093326.6</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>2E-3</v>
+      </c>
+      <c r="D70">
+        <v>3.76</v>
+      </c>
+      <c r="E70">
+        <v>100</v>
+      </c>
+      <c r="F70">
+        <v>9.5470000000000006</v>
+      </c>
+      <c r="G70">
+        <v>0.05</v>
+      </c>
+      <c r="H70">
+        <v>2.9809999999999999</v>
+      </c>
+      <c r="I70">
+        <v>6.516</v>
+      </c>
+      <c r="J70">
+        <v>2172922.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>12</v>
       </c>
-      <c r="B70">
+      <c r="B71">
         <v>7000</v>
       </c>
-      <c r="C70">
+      <c r="C71">
+        <v>1E-4</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>5.5129999999999999</v>
+      </c>
+      <c r="G71">
+        <v>0.41</v>
+      </c>
+      <c r="H71">
+        <v>4.9470000000000001</v>
+      </c>
+      <c r="I71">
+        <v>0.157</v>
+      </c>
+      <c r="J71">
+        <v>65632.100000000006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72">
+        <v>7000</v>
+      </c>
+      <c r="C72">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>5.5369999999999999</v>
+      </c>
+      <c r="G72">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="H72">
+        <v>4.952</v>
+      </c>
+      <c r="I72">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="J72">
+        <v>104905</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73">
+        <v>7000</v>
+      </c>
+      <c r="C73">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>5.6059999999999999</v>
+      </c>
+      <c r="G73">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="H73">
+        <v>4.9409999999999998</v>
+      </c>
+      <c r="I73">
+        <v>0.371</v>
+      </c>
+      <c r="J73">
+        <v>161896.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74">
+        <v>7000</v>
+      </c>
+      <c r="C74">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F74">
+        <v>5.71</v>
+      </c>
+      <c r="G74">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="H74">
+        <v>4.9459999999999997</v>
+      </c>
+      <c r="I74">
+        <v>0.496</v>
+      </c>
+      <c r="J74">
+        <v>217964.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75">
+        <v>7000</v>
+      </c>
+      <c r="C75">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>3.66</v>
+      </c>
+      <c r="F75">
+        <v>5.7220000000000004</v>
+      </c>
+      <c r="G75">
+        <v>0.218</v>
+      </c>
+      <c r="H75">
+        <v>4.8780000000000001</v>
+      </c>
+      <c r="I75">
+        <v>0.626</v>
+      </c>
+      <c r="J75">
+        <v>277585</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76">
+        <v>7000</v>
+      </c>
+      <c r="C76">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>10.09</v>
+      </c>
+      <c r="F76">
+        <v>5.6740000000000004</v>
+      </c>
+      <c r="G76">
+        <v>0.18</v>
+      </c>
+      <c r="H76">
+        <v>4.75</v>
+      </c>
+      <c r="I76">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="J76">
+        <v>338305</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77">
+        <v>7000</v>
+      </c>
+      <c r="C77">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>17.34</v>
+      </c>
+      <c r="F77">
+        <v>5.6230000000000002</v>
+      </c>
+      <c r="G77">
+        <v>0.152</v>
+      </c>
+      <c r="H77">
+        <v>4.6109999999999998</v>
+      </c>
+      <c r="I77">
+        <v>0.86</v>
+      </c>
+      <c r="J77">
+        <v>403346.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78">
+        <v>7000</v>
+      </c>
+      <c r="C78">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>24.18</v>
+      </c>
+      <c r="F78">
+        <v>5.5780000000000003</v>
+      </c>
+      <c r="G78">
+        <v>0.125</v>
+      </c>
+      <c r="H78">
+        <v>4.476</v>
+      </c>
+      <c r="I78">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="J78">
+        <v>465822.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79">
+        <v>7000</v>
+      </c>
+      <c r="C79">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>30.67</v>
+      </c>
+      <c r="F79">
+        <v>5.5529999999999999</v>
+      </c>
+      <c r="G79">
+        <v>0.109</v>
+      </c>
+      <c r="H79">
+        <v>4.3470000000000004</v>
+      </c>
+      <c r="I79">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="J79">
+        <v>530449.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80">
+        <v>7000</v>
+      </c>
+      <c r="C80">
+        <v>1E-3</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>36.409999999999997</v>
+      </c>
+      <c r="F80">
+        <v>5.5540000000000003</v>
+      </c>
+      <c r="G80">
+        <v>0.1</v>
+      </c>
+      <c r="H80">
+        <v>4.2329999999999997</v>
+      </c>
+      <c r="I80">
+        <v>1.2210000000000001</v>
+      </c>
+      <c r="J80">
+        <v>598162.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81">
+        <v>7000</v>
+      </c>
+      <c r="C81">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>41.66</v>
+      </c>
+      <c r="F81">
+        <v>5.5730000000000004</v>
+      </c>
+      <c r="G81">
+        <v>0.09</v>
+      </c>
+      <c r="H81">
+        <v>4.1289999999999996</v>
+      </c>
+      <c r="I81">
+        <v>1.3540000000000001</v>
+      </c>
+      <c r="J81">
+        <v>666244.30000000005</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82">
+        <v>7000</v>
+      </c>
+      <c r="C82">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>46.28</v>
+      </c>
+      <c r="F82">
+        <v>5.617</v>
+      </c>
+      <c r="G82">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="H82">
+        <v>4.0389999999999997</v>
+      </c>
+      <c r="I82">
+        <v>1.4970000000000001</v>
+      </c>
+      <c r="J82">
+        <v>739564.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83">
+        <v>7000</v>
+      </c>
+      <c r="C83">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>50.64</v>
+      </c>
+      <c r="F83">
+        <v>5.6870000000000003</v>
+      </c>
+      <c r="G83">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H83">
+        <v>3.952</v>
+      </c>
+      <c r="I83">
+        <v>1.659</v>
+      </c>
+      <c r="J83">
+        <v>816373.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84">
+        <v>7000</v>
+      </c>
+      <c r="C84">
         <v>1.4E-3</v>
       </c>
-      <c r="D70">
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>54.36</v>
+      </c>
+      <c r="F84">
+        <v>5.782</v>
+      </c>
+      <c r="G84">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="H84">
+        <v>3.8780000000000001</v>
+      </c>
+      <c r="I84">
+        <v>1.8340000000000001</v>
+      </c>
+      <c r="J84">
+        <v>897533.3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85">
+        <v>7000</v>
+      </c>
+      <c r="C85">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>57.92</v>
+      </c>
+      <c r="F85">
+        <v>5.915</v>
+      </c>
+      <c r="G85">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H85">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="I85">
+        <v>2.0390000000000001</v>
+      </c>
+      <c r="J85">
+        <v>987626.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86">
+        <v>7000</v>
+      </c>
+      <c r="C86">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>61.17</v>
+      </c>
+      <c r="F86">
+        <v>6.0949999999999998</v>
+      </c>
+      <c r="G86">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="H86">
+        <v>3.7440000000000002</v>
+      </c>
+      <c r="I86">
+        <v>2.2869999999999999</v>
+      </c>
+      <c r="J86">
+        <v>1087746.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87">
+        <v>7000</v>
+      </c>
+      <c r="C87">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>64.260000000000005</v>
+      </c>
+      <c r="F87">
+        <v>6.3159999999999998</v>
+      </c>
+      <c r="G87">
+        <v>0.06</v>
+      </c>
+      <c r="H87">
+        <v>3.6840000000000002</v>
+      </c>
+      <c r="I87">
+        <v>2.5720000000000001</v>
+      </c>
+      <c r="J87">
+        <v>1199115.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88">
+        <v>7000</v>
+      </c>
+      <c r="C88">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>67.069999999999993</v>
+      </c>
+      <c r="F88">
+        <v>6.5990000000000002</v>
+      </c>
+      <c r="G88">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H88">
+        <v>3.629</v>
+      </c>
+      <c r="I88">
+        <v>2.911</v>
+      </c>
+      <c r="J88">
+        <v>1325331.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89">
+        <v>7000</v>
+      </c>
+      <c r="C89">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>69.78</v>
+      </c>
+      <c r="F89">
+        <v>6.9850000000000003</v>
+      </c>
+      <c r="G89">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H89">
+        <v>3.5760000000000001</v>
+      </c>
+      <c r="I89">
+        <v>3.351</v>
+      </c>
+      <c r="J89">
+        <v>1476951.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90">
+        <v>7000</v>
+      </c>
+      <c r="C90">
+        <v>2E-3</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>72.260000000000005</v>
+      </c>
+      <c r="F90">
+        <v>7.4539999999999997</v>
+      </c>
+      <c r="G90">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H90">
+        <v>3.5270000000000001</v>
+      </c>
+      <c r="I90">
+        <v>3.8679999999999999</v>
+      </c>
+      <c r="J90">
+        <v>1666384</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91">
+        <v>7000</v>
+      </c>
+      <c r="C91">
+        <v>1E-4</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>5.5129999999999999</v>
+      </c>
+      <c r="G91">
+        <v>0.41</v>
+      </c>
+      <c r="H91">
+        <v>4.9470000000000001</v>
+      </c>
+      <c r="I91">
+        <v>0.157</v>
+      </c>
+      <c r="J91">
+        <v>65632.100000000006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92">
+        <v>7000</v>
+      </c>
+      <c r="C92">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>5.5369999999999999</v>
+      </c>
+      <c r="G92">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="H92">
+        <v>4.952</v>
+      </c>
+      <c r="I92">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="J92">
+        <v>104905</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93">
+        <v>7000</v>
+      </c>
+      <c r="C93">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>5.6059999999999999</v>
+      </c>
+      <c r="G93">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="H93">
+        <v>4.9409999999999998</v>
+      </c>
+      <c r="I93">
+        <v>0.371</v>
+      </c>
+      <c r="J93">
+        <v>161896.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94">
+        <v>7000</v>
+      </c>
+      <c r="C94">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D94">
+        <v>0.3</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>5.7060000000000004</v>
+      </c>
+      <c r="G94">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="H94">
+        <v>4.9459999999999997</v>
+      </c>
+      <c r="I94">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="J94">
+        <v>216532.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95">
+        <v>7000</v>
+      </c>
+      <c r="C95">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D95">
+        <v>3.27</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>5.7640000000000002</v>
+      </c>
+      <c r="G95">
+        <v>0.22</v>
+      </c>
+      <c r="H95">
+        <v>4.9450000000000003</v>
+      </c>
+      <c r="I95">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="J95">
+        <v>265807.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96">
+        <v>7000</v>
+      </c>
+      <c r="C96">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D96">
+        <v>9.26</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>5.7930000000000001</v>
+      </c>
+      <c r="G96">
+        <v>0.184</v>
+      </c>
+      <c r="H96">
+        <v>4.9450000000000003</v>
+      </c>
+      <c r="I96">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="J96">
+        <v>299151.09999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97">
+        <v>7000</v>
+      </c>
+      <c r="C97">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D97">
+        <v>15.61</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>5.8230000000000004</v>
+      </c>
+      <c r="G97">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="H97">
+        <v>4.9459999999999997</v>
+      </c>
+      <c r="I97">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="J97">
+        <v>326754.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98">
+        <v>7000</v>
+      </c>
+      <c r="C98">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D98">
+        <v>21.85</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>5.8440000000000003</v>
+      </c>
+      <c r="G98">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H98">
+        <v>4.9470000000000001</v>
+      </c>
+      <c r="I98">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="J98">
+        <v>346490.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99">
+        <v>7000</v>
+      </c>
+      <c r="C99">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D99">
+        <v>27.89</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>5.8609999999999998</v>
+      </c>
+      <c r="G99">
+        <v>0.125</v>
+      </c>
+      <c r="H99">
+        <v>4.95</v>
+      </c>
+      <c r="I99">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="J99">
+        <v>360929.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100">
+        <v>7000</v>
+      </c>
+      <c r="C100">
+        <v>1E-3</v>
+      </c>
+      <c r="D100">
+        <v>32.99</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>5.8819999999999997</v>
+      </c>
+      <c r="G100">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="H100">
+        <v>4.9489999999999998</v>
+      </c>
+      <c r="I100">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J100">
+        <v>373071.8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101">
+        <v>7000</v>
+      </c>
+      <c r="C101">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D101">
+        <v>37.74</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>5.899</v>
+      </c>
+      <c r="G101">
+        <v>0.108</v>
+      </c>
+      <c r="H101">
+        <v>4.95</v>
+      </c>
+      <c r="I101">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="J101">
+        <v>382573.9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102">
+        <v>7000</v>
+      </c>
+      <c r="C102">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D102">
+        <v>41.78</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>5.9160000000000004</v>
+      </c>
+      <c r="G102">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="H102">
+        <v>4.9489999999999998</v>
+      </c>
+      <c r="I102">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="J102">
+        <v>390856.9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103">
+        <v>7000</v>
+      </c>
+      <c r="C103">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D103">
+        <v>45.69</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>5.931</v>
+      </c>
+      <c r="G103">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="H103">
+        <v>4.9509999999999996</v>
+      </c>
+      <c r="I103">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="J103">
+        <v>396919.8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104">
+        <v>7000</v>
+      </c>
+      <c r="C104">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D104">
         <v>49.01</v>
       </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>5.944</v>
       </c>
-      <c r="G70">
+      <c r="G104">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="H70">
+      <c r="H104">
         <v>4.952</v>
       </c>
-      <c r="I70">
+      <c r="I104">
         <v>0.90400000000000003</v>
       </c>
-      <c r="J70">
+      <c r="J104">
         <v>401290.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105">
+        <v>7000</v>
+      </c>
+      <c r="C105">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D105">
+        <v>51.94</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>5.9420000000000002</v>
+      </c>
+      <c r="G105">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H105">
+        <v>4.944</v>
+      </c>
+      <c r="I105">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="J105">
+        <v>404777.1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106">
+        <v>7000</v>
+      </c>
+      <c r="C106">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D106">
+        <v>54.76</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>5.9489999999999998</v>
+      </c>
+      <c r="G106">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H106">
+        <v>4.9450000000000003</v>
+      </c>
+      <c r="I106">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J106">
+        <v>407101.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107">
+        <v>7000</v>
+      </c>
+      <c r="C107">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D107">
+        <v>57.34</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>5.9509999999999996</v>
+      </c>
+      <c r="G107">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="H107">
+        <v>4.9480000000000004</v>
+      </c>
+      <c r="I107">
+        <v>0.93</v>
+      </c>
+      <c r="J107">
+        <v>408315.3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108">
+        <v>7000</v>
+      </c>
+      <c r="C108">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D108">
+        <v>59.64</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>5.9530000000000003</v>
+      </c>
+      <c r="G108">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="H108">
+        <v>4.95</v>
+      </c>
+      <c r="I108">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="J108">
+        <v>408974.9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109">
+        <v>7000</v>
+      </c>
+      <c r="C109">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D109">
+        <v>61.74</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>5.9509999999999996</v>
+      </c>
+      <c r="G109">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H109">
+        <v>4.9489999999999998</v>
+      </c>
+      <c r="I109">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="J109">
+        <v>409356.7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110">
+        <v>7000</v>
+      </c>
+      <c r="C110">
+        <v>2E-3</v>
+      </c>
+      <c r="D110">
+        <v>63.57</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>5.9450000000000003</v>
+      </c>
+      <c r="G110">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H110">
+        <v>4.9429999999999996</v>
+      </c>
+      <c r="I110">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="J110">
+        <v>409566.1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111">
+        <v>3000</v>
+      </c>
+      <c r="C111">
+        <v>1E-4</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>5.5119999999999996</v>
+      </c>
+      <c r="G111">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="H111">
+        <v>4.9459999999999997</v>
+      </c>
+      <c r="I111">
+        <v>0.157</v>
+      </c>
+      <c r="J111">
+        <v>65562</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112">
+        <v>3000</v>
+      </c>
+      <c r="C112">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>1.2</v>
+      </c>
+      <c r="F112">
+        <v>5.4960000000000004</v>
+      </c>
+      <c r="G112">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="H112">
+        <v>4.931</v>
+      </c>
+      <c r="I112">
+        <v>0.24</v>
+      </c>
+      <c r="J112">
+        <v>104073.60000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113">
+        <v>3000</v>
+      </c>
+      <c r="C113">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>13.82</v>
+      </c>
+      <c r="F113">
+        <v>5.2169999999999996</v>
+      </c>
+      <c r="G113">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="H113">
+        <v>4.67</v>
+      </c>
+      <c r="I113">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="J113">
+        <v>157691.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114">
+        <v>3000</v>
+      </c>
+      <c r="C114">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>27.29</v>
+      </c>
+      <c r="F114">
+        <v>4.9859999999999998</v>
+      </c>
+      <c r="G114">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H114">
+        <v>4.4139999999999997</v>
+      </c>
+      <c r="I114">
+        <v>0.437</v>
+      </c>
+      <c r="J114">
+        <v>209764.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115">
+        <v>3000</v>
+      </c>
+      <c r="C115">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>38.71</v>
+      </c>
+      <c r="F115">
+        <v>4.8209999999999997</v>
+      </c>
+      <c r="G115">
+        <v>0.104</v>
+      </c>
+      <c r="H115">
+        <v>4.1870000000000003</v>
+      </c>
+      <c r="I115">
+        <v>0.53</v>
+      </c>
+      <c r="J115">
+        <v>262777.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116">
+        <v>3000</v>
+      </c>
+      <c r="C116">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>47.52</v>
+      </c>
+      <c r="F116">
+        <v>4.7240000000000002</v>
+      </c>
+      <c r="G116">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H116">
+        <v>4.0149999999999997</v>
+      </c>
+      <c r="I116">
+        <v>0.625</v>
+      </c>
+      <c r="J116">
+        <v>315407.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117">
+        <v>3000</v>
+      </c>
+      <c r="C117">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>54.52</v>
+      </c>
+      <c r="F117">
+        <v>4.6769999999999996</v>
+      </c>
+      <c r="G117">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="H117">
+        <v>3.8780000000000001</v>
+      </c>
+      <c r="I117">
+        <v>0.73</v>
+      </c>
+      <c r="J117">
+        <v>370471.4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118">
+        <v>3000</v>
+      </c>
+      <c r="C118">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>60.3</v>
+      </c>
+      <c r="F118">
+        <v>4.6680000000000001</v>
+      </c>
+      <c r="G118">
+        <v>0.06</v>
+      </c>
+      <c r="H118">
+        <v>3.7639999999999998</v>
+      </c>
+      <c r="I118">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="J118">
+        <v>428461.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119">
+        <v>3000</v>
+      </c>
+      <c r="C119">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>65.16</v>
+      </c>
+      <c r="F119">
+        <v>4.7039999999999997</v>
+      </c>
+      <c r="G119">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H119">
+        <v>3.669</v>
+      </c>
+      <c r="I119">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="J119">
+        <v>490568.7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120">
+        <v>3000</v>
+      </c>
+      <c r="C120">
+        <v>1E-3</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>68.959999999999994</v>
+      </c>
+      <c r="F120">
+        <v>4.7759999999999998</v>
+      </c>
+      <c r="G120">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H120">
+        <v>3.5920000000000001</v>
+      </c>
+      <c r="I120">
+        <v>1.133</v>
+      </c>
+      <c r="J120">
+        <v>554583.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121">
+        <v>3000</v>
+      </c>
+      <c r="C121">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>72.34</v>
+      </c>
+      <c r="F121">
+        <v>4.8920000000000003</v>
+      </c>
+      <c r="G121">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H121">
+        <v>3.5270000000000001</v>
+      </c>
+      <c r="I121">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="J121">
+        <v>627240.30000000005</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122">
+        <v>3000</v>
+      </c>
+      <c r="C122">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>75.08</v>
+      </c>
+      <c r="F122">
+        <v>5.0380000000000003</v>
+      </c>
+      <c r="G122">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H122">
+        <v>3.472</v>
+      </c>
+      <c r="I122">
+        <v>1.518</v>
+      </c>
+      <c r="J122">
+        <v>706173.6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123">
+        <v>3000</v>
+      </c>
+      <c r="C123">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>77.56</v>
+      </c>
+      <c r="F123">
+        <v>5.2350000000000003</v>
+      </c>
+      <c r="G123">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H123">
+        <v>3.4220000000000002</v>
+      </c>
+      <c r="I123">
+        <v>1.766</v>
+      </c>
+      <c r="J123">
+        <v>794995.8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124">
+        <v>3000</v>
+      </c>
+      <c r="C124">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>79.58</v>
+      </c>
+      <c r="F124">
+        <v>5.4560000000000004</v>
+      </c>
+      <c r="G124">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H124">
+        <v>3.383</v>
+      </c>
+      <c r="I124">
+        <v>2.0259999999999998</v>
+      </c>
+      <c r="J124">
+        <v>889591.2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125">
+        <v>3000</v>
+      </c>
+      <c r="C125">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>81.459999999999994</v>
+      </c>
+      <c r="F125">
+        <v>5.7530000000000001</v>
+      </c>
+      <c r="G125">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H125">
+        <v>3.3460000000000001</v>
+      </c>
+      <c r="I125">
+        <v>2.36</v>
+      </c>
+      <c r="J125">
+        <v>1000273.3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126">
+        <v>3000</v>
+      </c>
+      <c r="C126">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>83.13</v>
+      </c>
+      <c r="F126">
+        <v>6.1</v>
+      </c>
+      <c r="G126">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H126">
+        <v>3.3130000000000002</v>
+      </c>
+      <c r="I126">
+        <v>2.7389999999999999</v>
+      </c>
+      <c r="J126">
+        <v>1128085.3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127">
+        <v>3000</v>
+      </c>
+      <c r="C127">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>84.64</v>
+      </c>
+      <c r="F127">
+        <v>6.5250000000000004</v>
+      </c>
+      <c r="G127">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H127">
+        <v>3.2829999999999999</v>
+      </c>
+      <c r="I127">
+        <v>3.1930000000000001</v>
+      </c>
+      <c r="J127">
+        <v>1273956.1000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128">
+        <v>3000</v>
+      </c>
+      <c r="C128">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>86.01</v>
+      </c>
+      <c r="F128">
+        <v>7.0250000000000004</v>
+      </c>
+      <c r="G128">
+        <v>0.05</v>
+      </c>
+      <c r="H128">
+        <v>3.2570000000000001</v>
+      </c>
+      <c r="I128">
+        <v>3.718</v>
+      </c>
+      <c r="J128">
+        <v>1457095.3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129">
+        <v>3000</v>
+      </c>
+      <c r="C129">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D129">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E129">
+        <v>87.04</v>
+      </c>
+      <c r="F129">
+        <v>7.5369999999999999</v>
+      </c>
+      <c r="G129">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H129">
+        <v>3.2360000000000002</v>
+      </c>
+      <c r="I129">
+        <v>4.2539999999999996</v>
+      </c>
+      <c r="J129">
+        <v>1633195.2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130">
+        <v>3000</v>
+      </c>
+      <c r="C130">
+        <v>2E-3</v>
+      </c>
+      <c r="D130">
+        <v>5.74</v>
+      </c>
+      <c r="E130">
+        <v>87.11</v>
+      </c>
+      <c r="F130">
+        <v>7.5380000000000003</v>
+      </c>
+      <c r="G130">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H130">
+        <v>3.234</v>
+      </c>
+      <c r="I130">
+        <v>4.26</v>
+      </c>
+      <c r="J130">
+        <v>1638118.2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131">
+        <v>3000</v>
+      </c>
+      <c r="C131">
+        <v>1E-4</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>5.5129999999999999</v>
+      </c>
+      <c r="G131">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="H131">
+        <v>4.944</v>
+      </c>
+      <c r="I131">
+        <v>0.157</v>
+      </c>
+      <c r="J131">
+        <v>65595.100000000006</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132">
+        <v>3000</v>
+      </c>
+      <c r="C132">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D132">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>5.5090000000000003</v>
+      </c>
+      <c r="G132">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="H132">
+        <v>4.9489999999999998</v>
+      </c>
+      <c r="I132">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="J132">
+        <v>102561.9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133">
+        <v>3000</v>
+      </c>
+      <c r="C133">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D133">
+        <v>13.36</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>5.4610000000000003</v>
+      </c>
+      <c r="G133">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="H133">
+        <v>4.9459999999999997</v>
+      </c>
+      <c r="I133">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="J133">
+        <v>135336.29999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134">
+        <v>3000</v>
+      </c>
+      <c r="C134">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D134">
+        <v>26.08</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>5.4349999999999996</v>
+      </c>
+      <c r="G134">
+        <v>0.154</v>
+      </c>
+      <c r="H134">
+        <v>4.9470000000000001</v>
+      </c>
+      <c r="I134">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="J134">
+        <v>151965.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135">
+        <v>3000</v>
+      </c>
+      <c r="C135">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D135">
+        <v>37.130000000000003</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>5.4379999999999997</v>
+      </c>
+      <c r="G135">
+        <v>0.129</v>
+      </c>
+      <c r="H135">
+        <v>4.95</v>
+      </c>
+      <c r="I135">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="J135">
+        <v>162666.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136">
+        <v>3000</v>
+      </c>
+      <c r="C136">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D136">
+        <v>45.45</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>5.4320000000000004</v>
+      </c>
+      <c r="G136">
+        <v>0.107</v>
+      </c>
+      <c r="H136">
+        <v>4.9470000000000001</v>
+      </c>
+      <c r="I136">
+        <v>0.379</v>
+      </c>
+      <c r="J136">
+        <v>168369.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137">
+        <v>3000</v>
+      </c>
+      <c r="C137">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D137">
+        <v>52.12</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>5.4260000000000002</v>
+      </c>
+      <c r="G137">
+        <v>0.09</v>
+      </c>
+      <c r="H137">
+        <v>4.944</v>
+      </c>
+      <c r="I137">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="J137">
+        <v>172516.9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138">
+        <v>3000</v>
+      </c>
+      <c r="C138">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D138">
+        <v>57.65</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>5.4279999999999999</v>
+      </c>
+      <c r="G138">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H138">
+        <v>4.9489999999999998</v>
+      </c>
+      <c r="I138">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="J138">
+        <v>174289</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139">
+        <v>3000</v>
+      </c>
+      <c r="C139">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D139">
+        <v>62.19</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>5.42</v>
+      </c>
+      <c r="G139">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H139">
+        <v>4.9489999999999998</v>
+      </c>
+      <c r="I139">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="J139">
+        <v>175024.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140">
+        <v>3000</v>
+      </c>
+      <c r="C140">
+        <v>1E-3</v>
+      </c>
+      <c r="D140">
+        <v>65.83</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>5.42</v>
+      </c>
+      <c r="G140">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H140">
+        <v>4.95</v>
+      </c>
+      <c r="I140">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="J140">
+        <v>175331.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141">
+        <v>3000</v>
+      </c>
+      <c r="C141">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D141">
+        <v>68.89</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>5.4180000000000001</v>
+      </c>
+      <c r="G141">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H141">
+        <v>4.9509999999999996</v>
+      </c>
+      <c r="I141">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="J141">
+        <v>175557.1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142">
+        <v>3000</v>
+      </c>
+      <c r="C142">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D142">
+        <v>71.45</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>5.415</v>
+      </c>
+      <c r="G142">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H142">
+        <v>4.95</v>
+      </c>
+      <c r="I142">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="J142">
+        <v>175673.60000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143">
+        <v>3000</v>
+      </c>
+      <c r="C143">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D143">
+        <v>73.7</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>5.4169999999999998</v>
+      </c>
+      <c r="G143">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H143">
+        <v>4.952</v>
+      </c>
+      <c r="I143">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="J143">
+        <v>175733.2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144">
+        <v>3000</v>
+      </c>
+      <c r="C144">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D144">
+        <v>75.47</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>5.4109999999999996</v>
+      </c>
+      <c r="G144">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H144">
+        <v>4.9450000000000003</v>
+      </c>
+      <c r="I144">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="J144">
+        <v>175809.8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145">
+        <v>3000</v>
+      </c>
+      <c r="C145">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D145">
+        <v>77.16</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>5.42</v>
+      </c>
+      <c r="G145">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H145">
+        <v>4.9550000000000001</v>
+      </c>
+      <c r="I145">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="J145">
+        <v>175836.3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146">
+        <v>3000</v>
+      </c>
+      <c r="C146">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D146">
+        <v>78.59</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>5.4219999999999997</v>
+      </c>
+      <c r="G146">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H146">
+        <v>4.9560000000000004</v>
+      </c>
+      <c r="I146">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="J146">
+        <v>175871</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147">
+        <v>3000</v>
+      </c>
+      <c r="C147">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D147">
+        <v>79.849999999999994</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>5.4189999999999996</v>
+      </c>
+      <c r="G147">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H147">
+        <v>4.9539999999999997</v>
+      </c>
+      <c r="I147">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="J147">
+        <v>175918.9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148">
+        <v>3000</v>
+      </c>
+      <c r="C148">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D148">
+        <v>80.92</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>5.4119999999999999</v>
+      </c>
+      <c r="G148">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H148">
+        <v>4.9470000000000001</v>
+      </c>
+      <c r="I148">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="J148">
+        <v>175917.9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149">
+        <v>3000</v>
+      </c>
+      <c r="C149">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D149">
+        <v>81.92</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>5.41</v>
+      </c>
+      <c r="G149">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H149">
+        <v>4.944</v>
+      </c>
+      <c r="I149">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="J149">
+        <v>175982.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150">
+        <v>3000</v>
+      </c>
+      <c r="C150">
+        <v>2E-3</v>
+      </c>
+      <c r="D150">
+        <v>82.84</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>5.4139999999999997</v>
+      </c>
+      <c r="G150">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H150">
+        <v>4.9489999999999998</v>
+      </c>
+      <c r="I150">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="J150">
+        <v>175979.5</v>
       </c>
     </row>
   </sheetData>
@@ -2710,9 +5285,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2727,30 +5302,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2782,7 +5357,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2814,7 +5389,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2846,7 +5421,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2878,7 +5453,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2910,7 +5485,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2942,7 +5517,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2974,7 +5549,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3006,7 +5581,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3038,7 +5613,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3070,7 +5645,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3102,7 +5677,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3134,7 +5709,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3166,7 +5741,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3198,7 +5773,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3230,7 +5805,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3262,7 +5837,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3294,7 +5869,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3326,7 +5901,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3358,7 +5933,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3390,7 +5965,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3422,7 +5997,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3454,7 +6029,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3486,7 +6061,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>7000</v>
@@ -3518,7 +6093,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>7000</v>
@@ -3550,7 +6125,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>7000</v>
@@ -3582,7 +6157,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B28">
         <v>7000</v>
@@ -3614,7 +6189,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B29">
         <v>7000</v>
@@ -3646,7 +6221,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B30">
         <v>7000</v>
@@ -3678,7 +6253,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B31">
         <v>7000</v>
@@ -3710,7 +6285,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>7000</v>
@@ -3742,7 +6317,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>7000</v>
@@ -3774,7 +6349,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>7000</v>
@@ -3806,7 +6381,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>7000</v>
@@ -3838,7 +6413,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>7000</v>
@@ -3870,7 +6445,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B37">
         <v>7000</v>
@@ -3902,7 +6477,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B38">
         <v>7000</v>
@@ -3934,7 +6509,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B39">
         <v>7000</v>
@@ -3966,7 +6541,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B40">
         <v>7000</v>
@@ -3998,7 +6573,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B41">
         <v>7000</v>
@@ -4030,7 +6605,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B42">
         <v>7000</v>
@@ -4062,7 +6637,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B43">
         <v>7000</v>
@@ -4094,7 +6669,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B44">
         <v>7000</v>
@@ -4126,7 +6701,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B45">
         <v>7000</v>
@@ -4158,7 +6733,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B46">
         <v>7000</v>
@@ -4190,7 +6765,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B47">
         <v>7000</v>
@@ -4222,7 +6797,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B48">
         <v>7000</v>
@@ -4254,7 +6829,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B49">
         <v>7000</v>
@@ -4286,7 +6861,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B50">
         <v>7000</v>
@@ -4318,7 +6893,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B51">
         <v>7000</v>
@@ -4350,7 +6925,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B52">
         <v>7000</v>
@@ -4382,7 +6957,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4414,7 +6989,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4446,7 +7021,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4478,7 +7053,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4510,7 +7085,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4542,7 +7117,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4574,7 +7149,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4606,7 +7181,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4638,7 +7213,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4670,7 +7245,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -4702,7 +7277,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -4734,7 +7309,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -4766,7 +7341,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -4798,7 +7373,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -4830,7 +7405,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -4858,6 +7433,1414 @@
       </c>
       <c r="J67">
         <v>4509845</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68">
+        <v>5000</v>
+      </c>
+      <c r="C68">
+        <v>1E-3</v>
+      </c>
+      <c r="D68">
+        <v>817790</v>
+      </c>
+      <c r="E68">
+        <v>199776</v>
+      </c>
+      <c r="F68">
+        <v>99168</v>
+      </c>
+      <c r="G68">
+        <v>2681149</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>25</v>
+      </c>
+      <c r="J68">
+        <v>192963</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69">
+        <v>5000</v>
+      </c>
+      <c r="C69">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D69">
+        <v>848776</v>
+      </c>
+      <c r="E69">
+        <v>217938</v>
+      </c>
+      <c r="F69">
+        <v>103602</v>
+      </c>
+      <c r="G69">
+        <v>2831486</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>143</v>
+      </c>
+      <c r="J69">
+        <v>386915</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70">
+        <v>5000</v>
+      </c>
+      <c r="C70">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D70">
+        <v>848570</v>
+      </c>
+      <c r="E70">
+        <v>215324</v>
+      </c>
+      <c r="F70">
+        <v>111657</v>
+      </c>
+      <c r="G70">
+        <v>2894113</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>1162</v>
+      </c>
+      <c r="J70">
+        <v>715064</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71">
+        <v>5000</v>
+      </c>
+      <c r="C71">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D71">
+        <v>838379</v>
+      </c>
+      <c r="E71">
+        <v>212157</v>
+      </c>
+      <c r="F71">
+        <v>119857</v>
+      </c>
+      <c r="G71">
+        <v>2789824</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>4351</v>
+      </c>
+      <c r="J71">
+        <v>1231922</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72">
+        <v>5000</v>
+      </c>
+      <c r="C72">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D72">
+        <v>839354</v>
+      </c>
+      <c r="E72">
+        <v>208228</v>
+      </c>
+      <c r="F72">
+        <v>124838</v>
+      </c>
+      <c r="G72">
+        <v>2758841</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>8979</v>
+      </c>
+      <c r="J72">
+        <v>1639378</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73">
+        <v>5000</v>
+      </c>
+      <c r="C73">
+        <v>1E-3</v>
+      </c>
+      <c r="D73">
+        <v>621736</v>
+      </c>
+      <c r="E73">
+        <v>132967</v>
+      </c>
+      <c r="F73">
+        <v>47784</v>
+      </c>
+      <c r="G73">
+        <v>1304233</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74">
+        <v>5000</v>
+      </c>
+      <c r="C74">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D74">
+        <v>633977</v>
+      </c>
+      <c r="E74">
+        <v>141517</v>
+      </c>
+      <c r="F74">
+        <v>45767</v>
+      </c>
+      <c r="G74">
+        <v>1309275</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75">
+        <v>5000</v>
+      </c>
+      <c r="C75">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D75">
+        <v>654325</v>
+      </c>
+      <c r="E75">
+        <v>139483</v>
+      </c>
+      <c r="F75">
+        <v>47012</v>
+      </c>
+      <c r="G75">
+        <v>1308445</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76">
+        <v>5000</v>
+      </c>
+      <c r="C76">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D76">
+        <v>656942</v>
+      </c>
+      <c r="E76">
+        <v>140770</v>
+      </c>
+      <c r="F76">
+        <v>47548</v>
+      </c>
+      <c r="G76">
+        <v>1315835</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77">
+        <v>5000</v>
+      </c>
+      <c r="C77">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D77">
+        <v>661262</v>
+      </c>
+      <c r="E77">
+        <v>137504</v>
+      </c>
+      <c r="F77">
+        <v>46349</v>
+      </c>
+      <c r="G77">
+        <v>1319371</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78">
+        <v>5000</v>
+      </c>
+      <c r="C78">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D78">
+        <v>830060</v>
+      </c>
+      <c r="E78">
+        <v>194801</v>
+      </c>
+      <c r="F78">
+        <v>136450</v>
+      </c>
+      <c r="G78">
+        <v>2715309</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>11045</v>
+      </c>
+      <c r="J78">
+        <v>2089917</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79">
+        <v>5000</v>
+      </c>
+      <c r="C79">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D79">
+        <v>823061</v>
+      </c>
+      <c r="E79">
+        <v>195516</v>
+      </c>
+      <c r="F79">
+        <v>141014</v>
+      </c>
+      <c r="G79">
+        <v>2652315</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>22163</v>
+      </c>
+      <c r="J79">
+        <v>2541416</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80">
+        <v>5000</v>
+      </c>
+      <c r="C80">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D80">
+        <v>812017</v>
+      </c>
+      <c r="E80">
+        <v>193264</v>
+      </c>
+      <c r="F80">
+        <v>151878</v>
+      </c>
+      <c r="G80">
+        <v>2543575</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>82932</v>
+      </c>
+      <c r="J80">
+        <v>2987667</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81">
+        <v>5000</v>
+      </c>
+      <c r="C81">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D81">
+        <v>797410</v>
+      </c>
+      <c r="E81">
+        <v>181186</v>
+      </c>
+      <c r="F81">
+        <v>156019</v>
+      </c>
+      <c r="G81">
+        <v>2438693</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>194030</v>
+      </c>
+      <c r="J81">
+        <v>3392262</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82">
+        <v>5000</v>
+      </c>
+      <c r="C82">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D82">
+        <v>812342</v>
+      </c>
+      <c r="E82">
+        <v>186899</v>
+      </c>
+      <c r="F82">
+        <v>165539</v>
+      </c>
+      <c r="G82">
+        <v>2210457</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>282084</v>
+      </c>
+      <c r="J82">
+        <v>3894980</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83">
+        <v>5000</v>
+      </c>
+      <c r="C83">
+        <v>2E-3</v>
+      </c>
+      <c r="D83">
+        <v>797340</v>
+      </c>
+      <c r="E83">
+        <v>186485</v>
+      </c>
+      <c r="F83">
+        <v>170296</v>
+      </c>
+      <c r="G83">
+        <v>2058888</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>328447</v>
+      </c>
+      <c r="J83">
+        <v>4368280</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84">
+        <v>7000</v>
+      </c>
+      <c r="C84">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D84">
+        <v>1046004</v>
+      </c>
+      <c r="E84">
+        <v>266440</v>
+      </c>
+      <c r="F84">
+        <v>143642</v>
+      </c>
+      <c r="G84">
+        <v>3558856</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>2427</v>
+      </c>
+      <c r="J84">
+        <v>958399</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85">
+        <v>7000</v>
+      </c>
+      <c r="C85">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D85">
+        <v>1043041</v>
+      </c>
+      <c r="E85">
+        <v>267005</v>
+      </c>
+      <c r="F85">
+        <v>150069</v>
+      </c>
+      <c r="G85">
+        <v>3426992</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>6197</v>
+      </c>
+      <c r="J85">
+        <v>1480175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86">
+        <v>7000</v>
+      </c>
+      <c r="C86">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D86">
+        <v>1019009</v>
+      </c>
+      <c r="E86">
+        <v>254620</v>
+      </c>
+      <c r="F86">
+        <v>159849</v>
+      </c>
+      <c r="G86">
+        <v>3349610</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>14067</v>
+      </c>
+      <c r="J86">
+        <v>1974127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87">
+        <v>7000</v>
+      </c>
+      <c r="C87">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D87">
+        <v>1007637</v>
+      </c>
+      <c r="E87">
+        <v>243097</v>
+      </c>
+      <c r="F87">
+        <v>166018</v>
+      </c>
+      <c r="G87">
+        <v>3316373</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>62444</v>
+      </c>
+      <c r="J87">
+        <v>2364090</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88">
+        <v>7000</v>
+      </c>
+      <c r="C88">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D88">
+        <v>999080</v>
+      </c>
+      <c r="E88">
+        <v>232991</v>
+      </c>
+      <c r="F88">
+        <v>172631</v>
+      </c>
+      <c r="G88">
+        <v>3053956</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>179398</v>
+      </c>
+      <c r="J88">
+        <v>2916701</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89">
+        <v>7000</v>
+      </c>
+      <c r="C89">
+        <v>2E-3</v>
+      </c>
+      <c r="D89">
+        <v>970619</v>
+      </c>
+      <c r="E89">
+        <v>226758</v>
+      </c>
+      <c r="F89">
+        <v>178662</v>
+      </c>
+      <c r="G89">
+        <v>2911617</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>276276</v>
+      </c>
+      <c r="J89">
+        <v>3380543</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90">
+        <v>5000</v>
+      </c>
+      <c r="C90">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D90">
+        <v>656181</v>
+      </c>
+      <c r="E90">
+        <v>138400</v>
+      </c>
+      <c r="F90">
+        <v>48196</v>
+      </c>
+      <c r="G90">
+        <v>1323580</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91">
+        <v>5000</v>
+      </c>
+      <c r="C91">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D91">
+        <v>660772</v>
+      </c>
+      <c r="E91">
+        <v>140952</v>
+      </c>
+      <c r="F91">
+        <v>47308</v>
+      </c>
+      <c r="G91">
+        <v>1317958</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92">
+        <v>5000</v>
+      </c>
+      <c r="C92">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D92">
+        <v>663147</v>
+      </c>
+      <c r="E92">
+        <v>142070</v>
+      </c>
+      <c r="F92">
+        <v>47556</v>
+      </c>
+      <c r="G92">
+        <v>1315780</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93">
+        <v>5000</v>
+      </c>
+      <c r="C93">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D93">
+        <v>665237</v>
+      </c>
+      <c r="E93">
+        <v>139423</v>
+      </c>
+      <c r="F93">
+        <v>47544</v>
+      </c>
+      <c r="G93">
+        <v>1318787</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94">
+        <v>5000</v>
+      </c>
+      <c r="C94">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D94">
+        <v>666258</v>
+      </c>
+      <c r="E94">
+        <v>142215</v>
+      </c>
+      <c r="F94">
+        <v>48781</v>
+      </c>
+      <c r="G94">
+        <v>1313440</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95">
+        <v>5000</v>
+      </c>
+      <c r="C95">
+        <v>2E-3</v>
+      </c>
+      <c r="D95">
+        <v>664712</v>
+      </c>
+      <c r="E95">
+        <v>142132</v>
+      </c>
+      <c r="F95">
+        <v>47265</v>
+      </c>
+      <c r="G95">
+        <v>1317197</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96">
+        <v>7000</v>
+      </c>
+      <c r="C96">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D96">
+        <v>838346</v>
+      </c>
+      <c r="E96">
+        <v>178605</v>
+      </c>
+      <c r="F96">
+        <v>62853</v>
+      </c>
+      <c r="G96">
+        <v>1790645</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97">
+        <v>7000</v>
+      </c>
+      <c r="C97">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D97">
+        <v>852289</v>
+      </c>
+      <c r="E97">
+        <v>183034</v>
+      </c>
+      <c r="F97">
+        <v>63917</v>
+      </c>
+      <c r="G97">
+        <v>1783911</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98">
+        <v>7000</v>
+      </c>
+      <c r="C98">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D98">
+        <v>854138</v>
+      </c>
+      <c r="E98">
+        <v>183402</v>
+      </c>
+      <c r="F98">
+        <v>65343</v>
+      </c>
+      <c r="G98">
+        <v>1787517</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>24</v>
+      </c>
+      <c r="B99">
+        <v>7000</v>
+      </c>
+      <c r="C99">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D99">
+        <v>858077</v>
+      </c>
+      <c r="E99">
+        <v>186935</v>
+      </c>
+      <c r="F99">
+        <v>64664</v>
+      </c>
+      <c r="G99">
+        <v>1783914</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>24</v>
+      </c>
+      <c r="B100">
+        <v>7000</v>
+      </c>
+      <c r="C100">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D100">
+        <v>859387</v>
+      </c>
+      <c r="E100">
+        <v>189032</v>
+      </c>
+      <c r="F100">
+        <v>65748</v>
+      </c>
+      <c r="G100">
+        <v>1782544</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101">
+        <v>7000</v>
+      </c>
+      <c r="C101">
+        <v>2E-3</v>
+      </c>
+      <c r="D101">
+        <v>862464</v>
+      </c>
+      <c r="E101">
+        <v>181736</v>
+      </c>
+      <c r="F101">
+        <v>64921</v>
+      </c>
+      <c r="G101">
+        <v>1792862</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D102">
+        <v>266441</v>
+      </c>
+      <c r="E102">
+        <v>25367</v>
+      </c>
+      <c r="F102">
+        <v>116477</v>
+      </c>
+      <c r="G102">
+        <v>478981</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>247688</v>
+      </c>
+      <c r="J102">
+        <v>4834791</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D103">
+        <v>287672</v>
+      </c>
+      <c r="E103">
+        <v>23880</v>
+      </c>
+      <c r="F103">
+        <v>121950</v>
+      </c>
+      <c r="G103">
+        <v>510032</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>264758</v>
+      </c>
+      <c r="J103">
+        <v>5154936</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D104">
+        <v>291526</v>
+      </c>
+      <c r="E104">
+        <v>29458</v>
+      </c>
+      <c r="F104">
+        <v>129997</v>
+      </c>
+      <c r="G104">
+        <v>531250</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>282375</v>
+      </c>
+      <c r="J104">
+        <v>5388380</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D105">
+        <v>293648</v>
+      </c>
+      <c r="E105">
+        <v>24946</v>
+      </c>
+      <c r="F105">
+        <v>129571</v>
+      </c>
+      <c r="G105">
+        <v>537045</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>281079</v>
+      </c>
+      <c r="J105">
+        <v>5402534</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D106">
+        <v>296455</v>
+      </c>
+      <c r="E106">
+        <v>25458</v>
+      </c>
+      <c r="F106">
+        <v>130082</v>
+      </c>
+      <c r="G106">
+        <v>534748</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>279850</v>
+      </c>
+      <c r="J106">
+        <v>5400280</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>2E-3</v>
+      </c>
+      <c r="D107">
+        <v>297286</v>
+      </c>
+      <c r="E107">
+        <v>26093</v>
+      </c>
+      <c r="F107">
+        <v>129156</v>
+      </c>
+      <c r="G107">
+        <v>527309</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>282945</v>
+      </c>
+      <c r="J107">
+        <v>5411821</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D108">
+        <v>294586</v>
+      </c>
+      <c r="E108">
+        <v>26637</v>
+      </c>
+      <c r="F108">
+        <v>132109</v>
+      </c>
+      <c r="G108">
+        <v>543189</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>287892</v>
+      </c>
+      <c r="J108">
+        <v>5468533</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D109">
+        <v>312044</v>
+      </c>
+      <c r="E109">
+        <v>27584</v>
+      </c>
+      <c r="F109">
+        <v>139512</v>
+      </c>
+      <c r="G109">
+        <v>576363</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>304635</v>
+      </c>
+      <c r="J109">
+        <v>5773346</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D110">
+        <v>328954</v>
+      </c>
+      <c r="E110">
+        <v>28994</v>
+      </c>
+      <c r="F110">
+        <v>147260</v>
+      </c>
+      <c r="G110">
+        <v>597040</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>321969</v>
+      </c>
+      <c r="J110">
+        <v>6092264</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>2E-3</v>
+      </c>
+      <c r="D111">
+        <v>327969</v>
+      </c>
+      <c r="E111">
+        <v>28972</v>
+      </c>
+      <c r="F111">
+        <v>147580</v>
+      </c>
+      <c r="G111">
+        <v>608048</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>329269</v>
+      </c>
+      <c r="J111">
+        <v>6170781</v>
       </c>
     </row>
   </sheetData>
